--- a/data/DP1.xlsx
+++ b/data/DP1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYED SAMEER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYED SAMEER\eclipse-workspace\SalesAndInventoryTestNg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2121483-EE69-48E9-91D3-9F7598591222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5773369A-21BE-41D6-B2E1-ADBAA9E934BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" xr2:uid="{7F86C8CF-3746-4CC9-A7DB-9B8D3FD9A83A}"/>
+    <workbookView xWindow="2220" yWindow="2520" windowWidth="15375" windowHeight="7410" xr2:uid="{7F86C8CF-3746-4CC9-A7DB-9B8D3FD9A83A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>A1</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>D3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
   </si>
 </sst>
 </file>
@@ -422,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599FCE00-FBB3-483A-8C2B-F89366D37022}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -474,6 +483,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
